--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Distorted_greedy/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Distorted_greedy/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\Distorted_greedy\dataset_07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA33892-9958-4AC1-A87F-E38975F5C7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_dgreedy_dataset_07_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +731,19 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>470.3359273524266</v>
+        <v>470.33592735242661</v>
       </c>
       <c r="H2">
         <v>125.225783064949</v>
       </c>
       <c r="I2">
-        <v>345.1101442874776</v>
+        <v>345.11014428747762</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>357.4998289857137</v>
+        <v>357.49982898571369</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -663,25 +752,25 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.9653435227273039</v>
+        <v>0.96534352272730395</v>
       </c>
       <c r="O2">
-        <v>557.3957175557402</v>
+        <v>557.39571755574025</v>
       </c>
       <c r="P2">
         <v>199.8958885700265</v>
       </c>
       <c r="Q2">
-        <v>1.025478758264612</v>
+        <v>1.0254787582646121</v>
       </c>
       <c r="R2">
-        <v>152.5108413927217</v>
+        <v>152.51084139272169</v>
       </c>
       <c r="S2">
         <v>2.788430125017185</v>
       </c>
       <c r="T2">
-        <v>3.755903264014603</v>
+        <v>3.7559032640146031</v>
       </c>
       <c r="U2">
         <v>1.323328805959664</v>
@@ -690,19 +779,19 @@
         <v>179.3952583087746</v>
       </c>
       <c r="W2">
-        <v>657.8986043660288</v>
+        <v>657.89860436602885</v>
       </c>
       <c r="X2">
         <v>1003.008748653506</v>
       </c>
       <c r="Y2">
-        <v>645.5089196677927</v>
+        <v>645.50891966779272</v>
       </c>
       <c r="Z2">
         <v>1.019193669244125</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,19 +811,19 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>528.7049157365506</v>
+        <v>528.70491573655056</v>
       </c>
       <c r="H3">
-        <v>76.32335744562776</v>
+        <v>76.323357445627764</v>
       </c>
       <c r="I3">
-        <v>452.3815582909228</v>
+        <v>452.38155829092278</v>
       </c>
       <c r="J3">
         <v>0.1</v>
       </c>
       <c r="K3">
-        <v>452.3815582909228</v>
+        <v>452.38155829092278</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -743,46 +832,46 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O3">
-        <v>528.7049157365506</v>
+        <v>528.70491573655056</v>
       </c>
       <c r="P3">
-        <v>76.32335744562776</v>
+        <v>76.323357445627764</v>
       </c>
       <c r="Q3">
         <v>1.935451443118261</v>
       </c>
       <c r="R3">
-        <v>304.6614059791517</v>
+        <v>304.66140597915171</v>
       </c>
       <c r="S3">
-        <v>6.927170573086965</v>
+        <v>6.9271705730869648</v>
       </c>
       <c r="T3">
-        <v>6.927170573086965</v>
+        <v>6.9271705730869648</v>
       </c>
       <c r="U3">
         <v>1.935451443118261</v>
       </c>
       <c r="V3">
-        <v>304.6614059791517</v>
+        <v>304.66140597915171</v>
       </c>
       <c r="W3">
-        <v>573.8005017071878</v>
+        <v>573.80050170718778</v>
       </c>
       <c r="X3">
-        <v>1026.182059998111</v>
+        <v>1026.1820599981111</v>
       </c>
       <c r="Y3">
-        <v>573.8005017071878</v>
+        <v>573.80050170718778</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +891,19 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>456.6260876059086</v>
+        <v>456.62608760590859</v>
       </c>
       <c r="H4">
         <v>104.67879609134</v>
       </c>
       <c r="I4">
-        <v>351.9472915145686</v>
+        <v>351.94729151456858</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>351.9472915145686</v>
+        <v>351.94729151456858</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -826,43 +915,43 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>456.6260876059086</v>
+        <v>456.62608760590859</v>
       </c>
       <c r="P4">
         <v>104.67879609134</v>
       </c>
       <c r="Q4">
-        <v>1.472968290199861</v>
+        <v>1.4729682901998611</v>
       </c>
       <c r="R4">
         <v>197.7587442157276</v>
       </c>
       <c r="S4">
-        <v>4.362164112085017</v>
+        <v>4.3621641120850168</v>
       </c>
       <c r="T4">
-        <v>4.362164112085017</v>
+        <v>4.3621641120850168</v>
       </c>
       <c r="U4">
-        <v>1.472968290199861</v>
+        <v>1.4729682901998611</v>
       </c>
       <c r="V4">
         <v>197.7587442157276</v>
       </c>
       <c r="W4">
-        <v>694.2375032150508</v>
+        <v>694.23750321505076</v>
       </c>
       <c r="X4">
-        <v>1046.184794729619</v>
+        <v>1046.1847947296189</v>
       </c>
       <c r="Y4">
-        <v>694.2375032150508</v>
+        <v>694.23750321505076</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,19 +971,19 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>556.9758092718383</v>
+        <v>556.97580927183833</v>
       </c>
       <c r="H5">
         <v>118.4363462834138</v>
       </c>
       <c r="I5">
-        <v>438.5394629884245</v>
+        <v>438.53946298842448</v>
       </c>
       <c r="J5">
         <v>0.1</v>
       </c>
       <c r="K5">
-        <v>438.5394629884245</v>
+        <v>438.53946298842448</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -906,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>556.9758092718383</v>
+        <v>556.97580927183833</v>
       </c>
       <c r="P5">
         <v>118.4363462834138</v>
@@ -915,34 +1004,34 @@
         <v>1.548146154505865</v>
       </c>
       <c r="R5">
-        <v>255.1826889360325</v>
+        <v>255.18268893603249</v>
       </c>
       <c r="S5">
-        <v>4.702743935877724</v>
+        <v>4.7027439358777237</v>
       </c>
       <c r="T5">
-        <v>4.702743935877724</v>
+        <v>4.7027439358777237</v>
       </c>
       <c r="U5">
         <v>1.548146154505865</v>
       </c>
       <c r="V5">
-        <v>255.1826889360325</v>
+        <v>255.18268893603249</v>
       </c>
       <c r="W5">
-        <v>594.9649711509169</v>
+        <v>594.96497115091688</v>
       </c>
       <c r="X5">
-        <v>1033.504434139341</v>
+        <v>1033.5044341393409</v>
       </c>
       <c r="Y5">
-        <v>594.9649711509169</v>
+        <v>594.96497115091688</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>563.3232989669328</v>
+        <v>563.32329896693284</v>
       </c>
       <c r="H6">
-        <v>86.31371328024902</v>
+        <v>86.313713280249019</v>
       </c>
       <c r="I6">
-        <v>477.0095856866838</v>
+        <v>477.00958568668381</v>
       </c>
       <c r="J6">
         <v>0.1</v>
       </c>
       <c r="K6">
-        <v>477.0095856866839</v>
+        <v>477.00958568668392</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -983,13 +1072,13 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O6">
-        <v>563.3232989669328</v>
+        <v>563.32329896693284</v>
       </c>
       <c r="P6">
-        <v>86.31371328024902</v>
+        <v>86.313713280249019</v>
       </c>
       <c r="Q6">
         <v>1.875865218703646</v>
@@ -998,10 +1087,10 @@
         <v>315.0966930471057</v>
       </c>
       <c r="S6">
-        <v>6.526463496453893</v>
+        <v>6.5264634964538928</v>
       </c>
       <c r="T6">
-        <v>6.526463496453893</v>
+        <v>6.5264634964538928</v>
       </c>
       <c r="U6">
         <v>1.875865218703646</v>
@@ -1010,19 +1099,19 @@
         <v>315.0966930471057</v>
       </c>
       <c r="W6">
-        <v>585.4522741874212</v>
+        <v>585.45227418742115</v>
       </c>
       <c r="X6">
-        <v>1062.461859874105</v>
+        <v>1062.4618598741049</v>
       </c>
       <c r="Y6">
-        <v>585.452274187421</v>
+        <v>585.45227418742104</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,19 +1131,19 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>537.297922507285</v>
+        <v>537.29792250728497</v>
       </c>
       <c r="H7">
-        <v>38.90961801632167</v>
+        <v>38.909618016321673</v>
       </c>
       <c r="I7">
-        <v>498.3883044909633</v>
+        <v>498.38830449096332</v>
       </c>
       <c r="J7">
         <v>0.1</v>
       </c>
       <c r="K7">
-        <v>498.3883044909633</v>
+        <v>498.38830449096332</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1063,46 +1152,46 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O7">
-        <v>537.297922507285</v>
+        <v>537.29792250728497</v>
       </c>
       <c r="P7">
-        <v>38.90961801632167</v>
+        <v>38.909618016321673</v>
       </c>
       <c r="Q7">
-        <v>2.625311261345743</v>
+        <v>2.6253112613457432</v>
       </c>
       <c r="R7">
-        <v>396.2384461380527</v>
+        <v>396.23844613805272</v>
       </c>
       <c r="S7">
-        <v>13.80887168519365</v>
+        <v>13.808871685193649</v>
       </c>
       <c r="T7">
-        <v>13.80887168519365</v>
+        <v>13.808871685193649</v>
       </c>
       <c r="U7">
-        <v>2.625311261345743</v>
+        <v>2.6253112613457432</v>
       </c>
       <c r="V7">
-        <v>396.2384461380527</v>
+        <v>396.23844613805272</v>
       </c>
       <c r="W7">
-        <v>577.8650575629038</v>
+        <v>577.86505756290376</v>
       </c>
       <c r="X7">
         <v>1076.253362053867</v>
       </c>
       <c r="Y7">
-        <v>577.8650575629038</v>
+        <v>577.86505756290376</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1125,10 +1214,10 @@
         <v>535.4869833518909</v>
       </c>
       <c r="H8">
-        <v>36.57307581170198</v>
+        <v>36.573075811701983</v>
       </c>
       <c r="I8">
-        <v>498.9139075401889</v>
+        <v>498.91390754018892</v>
       </c>
       <c r="J8">
         <v>0.1</v>
@@ -1149,13 +1238,13 @@
         <v>535.4869833518909</v>
       </c>
       <c r="P8">
-        <v>36.57307581170198</v>
+        <v>36.573075811701983</v>
       </c>
       <c r="Q8">
-        <v>2.683864245990122</v>
+        <v>2.6838642459901219</v>
       </c>
       <c r="R8">
-        <v>400.7567370032758</v>
+        <v>400.75673700327582</v>
       </c>
       <c r="S8">
         <v>14.64156271976872</v>
@@ -1164,25 +1253,25 @@
         <v>14.64156271976872</v>
       </c>
       <c r="U8">
-        <v>2.683864245990122</v>
+        <v>2.6838642459901219</v>
       </c>
       <c r="V8">
-        <v>400.7567370032758</v>
+        <v>400.75673700327582</v>
       </c>
       <c r="W8">
-        <v>577.9785092332223</v>
+        <v>577.97850923322233</v>
       </c>
       <c r="X8">
         <v>1076.892416773411</v>
       </c>
       <c r="Y8">
-        <v>577.9785092332224</v>
+        <v>577.97850923322244</v>
       </c>
       <c r="Z8">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1291,19 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>524.6424153127471</v>
+        <v>524.64241531274706</v>
       </c>
       <c r="H9">
         <v>171.0993937868009</v>
       </c>
       <c r="I9">
-        <v>353.5430215259462</v>
+        <v>353.54302152594619</v>
       </c>
       <c r="J9">
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>353.5430215259461</v>
+        <v>353.54302152594607</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1226,43 +1315,43 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>524.6424153127471</v>
+        <v>524.64241531274706</v>
       </c>
       <c r="P9">
         <v>171.0993937868009</v>
       </c>
       <c r="Q9">
-        <v>1.120472278980915</v>
+        <v>1.1204722789809149</v>
       </c>
       <c r="R9">
-        <v>161.8308938373964</v>
+        <v>161.83089383739639</v>
       </c>
       <c r="S9">
-        <v>3.066302011370536</v>
+        <v>3.0663020113705359</v>
       </c>
       <c r="T9">
-        <v>3.066302011370536</v>
+        <v>3.0663020113705359</v>
       </c>
       <c r="U9">
-        <v>1.120472278980915</v>
+        <v>1.1204722789809149</v>
       </c>
       <c r="V9">
-        <v>161.8308938373964</v>
+        <v>161.83089383739639</v>
       </c>
       <c r="W9">
-        <v>699.6038976390375</v>
+        <v>699.60389763903754</v>
       </c>
       <c r="X9">
         <v>1053.146919164984</v>
       </c>
       <c r="Y9">
-        <v>699.6038976390377</v>
+        <v>699.60389763903765</v>
       </c>
       <c r="Z9">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1282,19 +1371,19 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>428.904737017038</v>
+        <v>428.90473701703797</v>
       </c>
       <c r="H10">
-        <v>64.52614116356334</v>
+        <v>64.526141163563338</v>
       </c>
       <c r="I10">
-        <v>364.3785958534747</v>
+        <v>364.37859585347468</v>
       </c>
       <c r="J10">
         <v>0.1</v>
       </c>
       <c r="K10">
-        <v>364.3785958534746</v>
+        <v>364.37859585347462</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1306,43 +1395,43 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>428.904737017038</v>
+        <v>428.90473701703797</v>
       </c>
       <c r="P10">
-        <v>64.52614116356334</v>
+        <v>64.526141163563338</v>
       </c>
       <c r="Q10">
-        <v>1.894164404982344</v>
+        <v>1.8941644049823441</v>
       </c>
       <c r="R10">
-        <v>242.155476070587</v>
+        <v>242.15547607058701</v>
       </c>
       <c r="S10">
-        <v>6.646991890152456</v>
+        <v>6.6469918901524556</v>
       </c>
       <c r="T10">
-        <v>6.646991890152456</v>
+        <v>6.6469918901524556</v>
       </c>
       <c r="U10">
-        <v>1.894164404982344</v>
+        <v>1.8941644049823441</v>
       </c>
       <c r="V10">
-        <v>242.155476070587</v>
+        <v>242.15547607058701</v>
       </c>
       <c r="W10">
-        <v>615.9699479126814</v>
+        <v>615.96994791268139</v>
       </c>
       <c r="X10">
-        <v>980.3485437661561</v>
+        <v>980.34854376615613</v>
       </c>
       <c r="Y10">
         <v>615.9699479126815</v>
       </c>
       <c r="Z10">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1362,19 +1451,19 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>506.1946670291918</v>
+        <v>506.19466702919181</v>
       </c>
       <c r="H11">
-        <v>74.14306854838594</v>
+        <v>74.143068548385941</v>
       </c>
       <c r="I11">
-        <v>432.0515984808059</v>
+        <v>432.05159848080592</v>
       </c>
       <c r="J11">
         <v>0.1</v>
       </c>
       <c r="K11">
-        <v>432.0515984808058</v>
+        <v>432.05159848080581</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1386,43 +1475,43 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>506.1946670291918</v>
+        <v>506.19466702919181</v>
       </c>
       <c r="P11">
-        <v>74.14306854838594</v>
+        <v>74.143068548385941</v>
       </c>
       <c r="Q11">
         <v>1.92092472731819</v>
       </c>
       <c r="R11">
-        <v>289.6283447469638</v>
+        <v>289.62834474696382</v>
       </c>
       <c r="S11">
-        <v>6.827268913193794</v>
+        <v>6.8272689131937936</v>
       </c>
       <c r="T11">
-        <v>6.827268913193794</v>
+        <v>6.8272689131937936</v>
       </c>
       <c r="U11">
         <v>1.92092472731819</v>
       </c>
       <c r="V11">
-        <v>289.6283447469638</v>
+        <v>289.62834474696382</v>
       </c>
       <c r="W11">
-        <v>657.9416058626856</v>
+        <v>657.94160586268561</v>
       </c>
       <c r="X11">
         <v>1089.993204343491</v>
       </c>
       <c r="Y11">
-        <v>657.9416058626857</v>
+        <v>657.94160586268572</v>
       </c>
       <c r="Z11">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>419.67842183392</v>
+        <v>419.67842183392003</v>
       </c>
       <c r="H12">
-        <v>78.47176378619696</v>
+        <v>78.471763786196959</v>
       </c>
       <c r="I12">
-        <v>341.2066580477231</v>
+        <v>341.20665804772312</v>
       </c>
       <c r="J12">
         <v>0.1</v>
       </c>
       <c r="K12">
-        <v>341.2066580477231</v>
+        <v>341.20665804772312</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1466,43 +1555,43 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>419.67842183392</v>
+        <v>419.67842183392003</v>
       </c>
       <c r="P12">
-        <v>78.47176378619696</v>
+        <v>78.471763786196959</v>
       </c>
       <c r="Q12">
-        <v>1.676749892617377</v>
+        <v>1.6767498926173769</v>
       </c>
       <c r="R12">
         <v>209.6291365457212</v>
       </c>
       <c r="S12">
-        <v>5.348145646087041</v>
+        <v>5.3481456460870413</v>
       </c>
       <c r="T12">
-        <v>5.348145646087041</v>
+        <v>5.3481456460870413</v>
       </c>
       <c r="U12">
-        <v>1.676749892617377</v>
+        <v>1.6767498926173769</v>
       </c>
       <c r="V12">
         <v>209.6291365457212</v>
       </c>
       <c r="W12">
-        <v>635.2588873353577</v>
+        <v>635.25888733535771</v>
       </c>
       <c r="X12">
-        <v>976.4655453830808</v>
+        <v>976.46554538308078</v>
       </c>
       <c r="Y12">
-        <v>635.2588873353577</v>
+        <v>635.25888733535771</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,19 +1611,19 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>498.9746182533883</v>
+        <v>498.97461825338831</v>
       </c>
       <c r="H13">
-        <v>35.97087477652145</v>
+        <v>35.970874776521448</v>
       </c>
       <c r="I13">
-        <v>463.0037434768669</v>
+        <v>463.00374347686687</v>
       </c>
       <c r="J13">
         <v>0.1</v>
       </c>
       <c r="K13">
-        <v>481.1016779712453</v>
+        <v>481.10167797124529</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -1543,46 +1632,46 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>0.9623823085159555</v>
+        <v>0.96238230851595552</v>
       </c>
       <c r="O13">
-        <v>539.9925089263924</v>
+        <v>539.99250892639236</v>
       </c>
       <c r="P13">
         <v>58.89083095514691</v>
       </c>
       <c r="Q13">
-        <v>2.215869859953769</v>
+        <v>2.2158698599537692</v>
       </c>
       <c r="R13">
-        <v>350.607260630103</v>
+        <v>350.60726063010299</v>
       </c>
       <c r="S13">
-        <v>9.169381721539427</v>
+        <v>9.1693817215394269</v>
       </c>
       <c r="T13">
-        <v>13.87162868163201</v>
+        <v>13.871628681632011</v>
       </c>
       <c r="U13">
-        <v>2.62984565220819</v>
+        <v>2.6298456522081901</v>
       </c>
       <c r="V13">
-        <v>368.4058948397067</v>
+        <v>368.40589483970672</v>
       </c>
       <c r="W13">
-        <v>643.6217039970115</v>
+        <v>643.62170399701154</v>
       </c>
       <c r="X13">
         <v>1106.625447473878</v>
       </c>
       <c r="Y13">
-        <v>625.5237695026332</v>
+        <v>625.52376950263317</v>
       </c>
       <c r="Z13">
-        <v>1.028932448896016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>1.0289324488960161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1691,19 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>499.0476433600485</v>
+        <v>499.04764336004848</v>
       </c>
       <c r="H14">
-        <v>76.4006209487325</v>
+        <v>76.400620948732495</v>
       </c>
       <c r="I14">
-        <v>422.647022411316</v>
+        <v>422.64702241131602</v>
       </c>
       <c r="J14">
         <v>0.1</v>
       </c>
       <c r="K14">
-        <v>422.647022411316</v>
+        <v>422.64702241131602</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1626,43 +1715,43 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>499.0476433600485</v>
+        <v>499.04764336004848</v>
       </c>
       <c r="P14">
-        <v>76.4006209487325</v>
+        <v>76.400620948732495</v>
       </c>
       <c r="Q14">
-        <v>1.876710745128607</v>
+        <v>1.8767107451286069</v>
       </c>
       <c r="R14">
-        <v>279.265156142332</v>
+        <v>279.26515614233199</v>
       </c>
       <c r="S14">
-        <v>6.531984127392461</v>
+        <v>6.5319841273924606</v>
       </c>
       <c r="T14">
-        <v>6.531984127392461</v>
+        <v>6.5319841273924606</v>
       </c>
       <c r="U14">
-        <v>1.876710745128607</v>
+        <v>1.8767107451286069</v>
       </c>
       <c r="V14">
-        <v>279.265156142332</v>
+        <v>279.26515614233199</v>
       </c>
       <c r="W14">
-        <v>626.4094276976842</v>
+        <v>626.40942769768424</v>
       </c>
       <c r="X14">
         <v>1049.056450109</v>
       </c>
       <c r="Y14">
-        <v>626.4094276976842</v>
+        <v>626.40942769768424</v>
       </c>
       <c r="Z14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1682,19 +1771,19 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>504.0151765783277</v>
+        <v>504.01517657832773</v>
       </c>
       <c r="H15">
-        <v>70.97240634174683</v>
+        <v>70.972406341746833</v>
       </c>
       <c r="I15">
-        <v>433.0427702365809</v>
+        <v>433.04277023658091</v>
       </c>
       <c r="J15">
         <v>0.1</v>
       </c>
       <c r="K15">
-        <v>433.0427702365808</v>
+        <v>433.04277023658079</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1706,43 +1795,43 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>504.0151765783277</v>
+        <v>504.01517657832773</v>
       </c>
       <c r="P15">
-        <v>70.97240634174683</v>
+        <v>70.972406341746833</v>
       </c>
       <c r="Q15">
-        <v>1.960315221450556</v>
+        <v>1.9603152214505559</v>
       </c>
       <c r="R15">
-        <v>293.9144817818807</v>
+        <v>293.91448178188068</v>
       </c>
       <c r="S15">
-        <v>7.10156527807991</v>
+        <v>7.1015652780799101</v>
       </c>
       <c r="T15">
-        <v>7.10156527807991</v>
+        <v>7.1015652780799101</v>
       </c>
       <c r="U15">
-        <v>1.960315221450556</v>
+        <v>1.9603152214505559</v>
       </c>
       <c r="V15">
-        <v>293.9144817818807</v>
+        <v>293.91448178188068</v>
       </c>
       <c r="W15">
-        <v>689.1713990715514</v>
+        <v>689.17139907155138</v>
       </c>
       <c r="X15">
-        <v>1122.214169308132</v>
+        <v>1122.2141693081321</v>
       </c>
       <c r="Y15">
         <v>689.1713990715516</v>
       </c>
       <c r="Z15">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,10 +1851,10 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>517.9565270564365</v>
+        <v>517.95652705643647</v>
       </c>
       <c r="H16">
-        <v>83.7334551568629</v>
+        <v>83.733455156862902</v>
       </c>
       <c r="I16">
         <v>434.2230718995736</v>
@@ -1786,43 +1875,43 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>517.9565270564365</v>
+        <v>517.95652705643647</v>
       </c>
       <c r="P16">
-        <v>83.7334551568629</v>
+        <v>83.733455156862902</v>
       </c>
       <c r="Q16">
-        <v>1.822252713312427</v>
+        <v>1.8222527133124271</v>
       </c>
       <c r="R16">
-        <v>281.6395560449558</v>
+        <v>281.63955604495578</v>
       </c>
       <c r="S16">
-        <v>6.185777549560298</v>
+        <v>6.1857775495602976</v>
       </c>
       <c r="T16">
-        <v>6.185777549560298</v>
+        <v>6.1857775495602976</v>
       </c>
       <c r="U16">
-        <v>1.822252713312427</v>
+        <v>1.8222527133124271</v>
       </c>
       <c r="V16">
-        <v>281.6395560449558</v>
+        <v>281.63955604495578</v>
       </c>
       <c r="W16">
-        <v>568.6552720582108</v>
+        <v>568.65527205821081</v>
       </c>
       <c r="X16">
         <v>1002.878343957784</v>
       </c>
       <c r="Y16">
-        <v>568.6552720582108</v>
+        <v>568.65527205821081</v>
       </c>
       <c r="Z16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1842,19 +1931,19 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>525.5309912556434</v>
+        <v>525.53099125564336</v>
       </c>
       <c r="H17">
         <v>53.84016612734731</v>
       </c>
       <c r="I17">
-        <v>471.6908251282961</v>
+        <v>471.69082512829613</v>
       </c>
       <c r="J17">
         <v>0.1</v>
       </c>
       <c r="K17">
-        <v>471.690825128296</v>
+        <v>471.69082512829601</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1866,43 +1955,43 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>525.5309912556434</v>
+        <v>525.53099125564336</v>
       </c>
       <c r="P17">
         <v>53.84016612734731</v>
       </c>
       <c r="Q17">
-        <v>2.278389392468205</v>
+        <v>2.2783893924682048</v>
       </c>
       <c r="R17">
-        <v>349.021961735022</v>
+        <v>349.02196173502199</v>
       </c>
       <c r="S17">
-        <v>9.760946688251538</v>
+        <v>9.7609466882515381</v>
       </c>
       <c r="T17">
-        <v>9.760946688251538</v>
+        <v>9.7609466882515381</v>
       </c>
       <c r="U17">
-        <v>2.278389392468205</v>
+        <v>2.2783893924682048</v>
       </c>
       <c r="V17">
-        <v>349.021961735022</v>
+        <v>349.02196173502199</v>
       </c>
       <c r="W17">
-        <v>614.0388349318952</v>
+        <v>614.03883493189517</v>
       </c>
       <c r="X17">
         <v>1085.729660060191</v>
       </c>
       <c r="Y17">
-        <v>614.0388349318953</v>
+        <v>614.03883493189528</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,10 +2011,10 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>503.6323301907561</v>
+        <v>503.63233019075608</v>
       </c>
       <c r="H18">
-        <v>86.86891774579868</v>
+        <v>86.868917745798683</v>
       </c>
       <c r="I18">
         <v>416.7634124449574</v>
@@ -1934,7 +2023,7 @@
         <v>0.1</v>
       </c>
       <c r="K18">
-        <v>416.7634124449573</v>
+        <v>416.76341244495728</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1946,43 +2035,43 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>503.6323301907561</v>
+        <v>503.63233019075608</v>
       </c>
       <c r="P18">
-        <v>86.86891774579868</v>
+        <v>86.868917745798683</v>
       </c>
       <c r="Q18">
-        <v>1.757446208389496</v>
+        <v>1.7574462083894959</v>
       </c>
       <c r="R18">
-        <v>264.0959623257045</v>
+        <v>264.09596232570448</v>
       </c>
       <c r="S18">
-        <v>5.797612578350715</v>
+        <v>5.7976125783507149</v>
       </c>
       <c r="T18">
-        <v>5.797612578350715</v>
+        <v>5.7976125783507149</v>
       </c>
       <c r="U18">
-        <v>1.757446208389496</v>
+        <v>1.7574462083894959</v>
       </c>
       <c r="V18">
-        <v>264.0959623257045</v>
+        <v>264.09596232570448</v>
       </c>
       <c r="W18">
-        <v>644.1583614472268</v>
+        <v>644.15836144722675</v>
       </c>
       <c r="X18">
-        <v>1060.921773892184</v>
+        <v>1060.9217738921841</v>
       </c>
       <c r="Y18">
-        <v>644.1583614472268</v>
+        <v>644.15836144722675</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,19 +2091,19 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>506.8646913088755</v>
+        <v>506.86469130887548</v>
       </c>
       <c r="H19">
-        <v>92.84540610367907</v>
+        <v>92.845406103679068</v>
       </c>
       <c r="I19">
-        <v>414.0192852051964</v>
+        <v>414.01928520519641</v>
       </c>
       <c r="J19">
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>414.0192852051964</v>
+        <v>414.01928520519641</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2026,43 +2115,43 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>506.8646913088755</v>
+        <v>506.86469130887548</v>
       </c>
       <c r="P19">
-        <v>92.84540610367907</v>
+        <v>92.845406103679068</v>
       </c>
       <c r="Q19">
-        <v>1.697308276885303</v>
+        <v>1.6973082768853029</v>
       </c>
       <c r="R19">
-        <v>256.4320089546447</v>
+        <v>256.43200895464469</v>
       </c>
       <c r="S19">
-        <v>5.459232853619783</v>
+        <v>5.4592328536197829</v>
       </c>
       <c r="T19">
-        <v>5.459232853619783</v>
+        <v>5.4592328536197829</v>
       </c>
       <c r="U19">
-        <v>1.697308276885303</v>
+        <v>1.6973082768853029</v>
       </c>
       <c r="V19">
-        <v>256.4320089546447</v>
+        <v>256.43200895464469</v>
       </c>
       <c r="W19">
-        <v>674.7681980248449</v>
+        <v>674.76819802484488</v>
       </c>
       <c r="X19">
-        <v>1088.787483230041</v>
+        <v>1088.7874832300411</v>
       </c>
       <c r="Y19">
-        <v>674.7681980248449</v>
+        <v>674.76819802484488</v>
       </c>
       <c r="Z19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2085,16 +2174,16 @@
         <v>444.7102097108974</v>
       </c>
       <c r="H20">
-        <v>37.04318147193647</v>
+        <v>37.043181471936471</v>
       </c>
       <c r="I20">
-        <v>407.6670282389609</v>
+        <v>407.66702823896088</v>
       </c>
       <c r="J20">
         <v>0.1</v>
       </c>
       <c r="K20">
-        <v>429.3110576606688</v>
+        <v>429.31105766066878</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -2103,46 +2192,46 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.949584272206621</v>
+        <v>0.94958427220662101</v>
       </c>
       <c r="O20">
-        <v>504.9803370094003</v>
+        <v>504.98033700940027</v>
       </c>
       <c r="P20">
-        <v>75.66927934873149</v>
+        <v>75.669279348731493</v>
       </c>
       <c r="Q20">
-        <v>1.898147234847214</v>
+        <v>1.8981472348472139</v>
       </c>
       <c r="R20">
-        <v>285.6796243019928</v>
+        <v>285.67962430199282</v>
       </c>
       <c r="S20">
-        <v>6.673518518421911</v>
+        <v>6.6735185184219112</v>
       </c>
       <c r="T20">
-        <v>12.00518400526168</v>
+        <v>12.005184005261681</v>
       </c>
       <c r="U20">
-        <v>2.485338556941149</v>
+        <v>2.4853385569411488</v>
       </c>
       <c r="V20">
-        <v>315.6021810549892</v>
+        <v>315.60218105498922</v>
       </c>
       <c r="W20">
-        <v>648.3000722829404</v>
+        <v>648.30007228294039</v>
       </c>
       <c r="X20">
-        <v>1055.967100521901</v>
+        <v>1055.9671005219011</v>
       </c>
       <c r="Y20">
-        <v>626.6560428612324</v>
+        <v>626.65604286123244</v>
       </c>
       <c r="Z20">
-        <v>1.034538930356251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>1.0345389303562511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>465.0934976583241</v>
+        <v>465.09349765832411</v>
       </c>
       <c r="H21">
-        <v>72.25019574544778</v>
+        <v>72.250195745447783</v>
       </c>
       <c r="I21">
-        <v>392.8433019128763</v>
+        <v>392.84330191287631</v>
       </c>
       <c r="J21">
         <v>0.1</v>
       </c>
       <c r="K21">
-        <v>392.8433019128763</v>
+        <v>392.84330191287631</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -2183,19 +2272,19 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O21">
-        <v>465.0934976583241</v>
+        <v>465.09349765832411</v>
       </c>
       <c r="P21">
-        <v>72.25019574544778</v>
+        <v>72.250195745447783</v>
       </c>
       <c r="Q21">
-        <v>1.862103419339976</v>
+        <v>1.8621034193399759</v>
       </c>
       <c r="R21">
-        <v>258.3059653672954</v>
+        <v>258.30596536729541</v>
       </c>
       <c r="S21">
         <v>6.43726280406137</v>
@@ -2204,25 +2293,25 @@
         <v>6.43726280406137</v>
       </c>
       <c r="U21">
-        <v>1.862103419339976</v>
+        <v>1.8621034193399759</v>
       </c>
       <c r="V21">
-        <v>258.3059653672954</v>
+        <v>258.30596536729541</v>
       </c>
       <c r="W21">
-        <v>595.1931356340108</v>
+        <v>595.19313563401079</v>
       </c>
       <c r="X21">
         <v>988.0364375468871</v>
       </c>
       <c r="Y21">
-        <v>595.1931356340108</v>
+        <v>595.19313563401079</v>
       </c>
       <c r="Z21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,19 +2331,19 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>667.8857111481381</v>
+        <v>667.88571114813806</v>
       </c>
       <c r="H22">
-        <v>27.23400125818065</v>
+        <v>27.234001258180651</v>
       </c>
       <c r="I22">
-        <v>640.6517098899574</v>
+        <v>640.65170988995737</v>
       </c>
       <c r="J22">
         <v>0.1</v>
       </c>
       <c r="K22">
-        <v>667.499129431919</v>
+        <v>667.49912943191896</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -2263,46 +2352,46 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.9597790942966318</v>
+        <v>0.95977909429663177</v>
       </c>
       <c r="O22">
-        <v>688.4041335709715</v>
+        <v>688.40413357097145</v>
       </c>
       <c r="P22">
-        <v>20.90500413905261</v>
+        <v>20.905004139052611</v>
       </c>
       <c r="Q22">
         <v>3.494387506123712</v>
       </c>
       <c r="R22">
-        <v>594.4489441529489</v>
+        <v>594.44894415294891</v>
       </c>
       <c r="S22">
-        <v>32.93011228277943</v>
+        <v>32.930112282779433</v>
       </c>
       <c r="T22">
         <v>24.52396564193872</v>
       </c>
       <c r="U22">
-        <v>3.199650828902018</v>
+        <v>3.1996508289020178</v>
       </c>
       <c r="V22">
-        <v>553.512415189901</v>
+        <v>553.51241518990105</v>
       </c>
       <c r="W22">
-        <v>450.9419499733283</v>
+        <v>450.94194997332829</v>
       </c>
       <c r="X22">
-        <v>1091.593659863286</v>
+        <v>1091.5936598632859</v>
       </c>
       <c r="Y22">
-        <v>424.0945304313667</v>
+        <v>424.09453043136671</v>
       </c>
       <c r="Z22">
-        <v>1.063305271856852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>1.0633052718568521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2322,19 +2411,19 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>538.5571331676412</v>
+        <v>538.55713316764115</v>
       </c>
       <c r="H23">
-        <v>6.907039455684126</v>
+        <v>6.9070394556841261</v>
       </c>
       <c r="I23">
-        <v>531.6500937119571</v>
+        <v>531.65009371195708</v>
       </c>
       <c r="J23">
         <v>0.1</v>
       </c>
       <c r="K23">
-        <v>531.6500937119573</v>
+        <v>531.65009371195731</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -2343,19 +2432,19 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.9999999999999996</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="O23">
-        <v>538.5571331676412</v>
+        <v>538.55713316764115</v>
       </c>
       <c r="P23">
-        <v>6.907039455684126</v>
+        <v>6.9070394556841261</v>
       </c>
       <c r="Q23">
-        <v>4.356352485334008</v>
+        <v>4.3563524853340079</v>
       </c>
       <c r="R23">
-        <v>501.5605952128875</v>
+        <v>501.56059521288751</v>
       </c>
       <c r="S23">
         <v>77.9722103258636</v>
@@ -2364,25 +2453,25 @@
         <v>77.9722103258636</v>
       </c>
       <c r="U23">
-        <v>4.356352485334008</v>
+        <v>4.3563524853340079</v>
       </c>
       <c r="V23">
-        <v>501.5605952128875</v>
+        <v>501.56059521288751</v>
       </c>
       <c r="W23">
-        <v>404.8071830114944</v>
+        <v>404.80718301149437</v>
       </c>
       <c r="X23">
-        <v>936.4572767234515</v>
+        <v>936.45727672345151</v>
       </c>
       <c r="Y23">
         <v>404.8071830114942</v>
       </c>
       <c r="Z23">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,19 +2491,19 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>592.3091121652777</v>
+        <v>592.30911216527772</v>
       </c>
       <c r="H24">
         <v>19.55782520956566</v>
       </c>
       <c r="I24">
-        <v>572.7512869557121</v>
+        <v>572.75128695571209</v>
       </c>
       <c r="J24">
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>608.7419552818253</v>
+        <v>608.74195528182531</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2423,46 +2512,46 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.9408769709170927</v>
+        <v>0.94087697091709266</v>
       </c>
       <c r="O24">
-        <v>654.8531363540125</v>
+        <v>654.85313635401246</v>
       </c>
       <c r="P24">
-        <v>46.11118107218711</v>
+        <v>46.111181072187108</v>
       </c>
       <c r="Q24">
         <v>2.653355531066012</v>
       </c>
       <c r="R24">
-        <v>486.3925979399513</v>
+        <v>486.39259793995132</v>
       </c>
       <c r="S24">
-        <v>14.2016127352895</v>
+        <v>14.201612735289499</v>
       </c>
       <c r="T24">
-        <v>30.28501920937413</v>
+        <v>30.285019209374131</v>
       </c>
       <c r="U24">
-        <v>3.410653174719456</v>
+        <v>3.4106531747194562</v>
       </c>
       <c r="V24">
-        <v>506.0463283140988</v>
+        <v>506.04632831409879</v>
       </c>
       <c r="W24">
         <v>513.7663169536778</v>
       </c>
       <c r="X24">
-        <v>1086.51760390939</v>
+        <v>1086.5176039093899</v>
       </c>
       <c r="Y24">
-        <v>477.7756486275646</v>
+        <v>477.77564862756458</v>
       </c>
       <c r="Z24">
-        <v>1.075329641494911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>1.0753296414949109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,10 +2571,10 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>565.1724489516334</v>
+        <v>565.17244895163344</v>
       </c>
       <c r="H25">
-        <v>38.07317009354327</v>
+        <v>38.073170093543268</v>
       </c>
       <c r="I25">
         <v>527.0992788580902</v>
@@ -2494,7 +2583,7 @@
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>527.0992788580903</v>
+        <v>527.09927885809032</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2503,19 +2592,19 @@
         <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O25">
-        <v>565.1724489516334</v>
+        <v>565.17244895163344</v>
       </c>
       <c r="P25">
-        <v>38.07317009354327</v>
+        <v>38.073170093543268</v>
       </c>
       <c r="Q25">
         <v>2.697621066910294</v>
       </c>
       <c r="R25">
-        <v>424.3922931296889</v>
+        <v>424.39229312968888</v>
       </c>
       <c r="S25">
         <v>14.84437590993978</v>
@@ -2527,22 +2616,22 @@
         <v>2.697621066910294</v>
       </c>
       <c r="V25">
-        <v>424.3922931296889</v>
+        <v>424.39229312968888</v>
       </c>
       <c r="W25">
-        <v>487.2035124036018</v>
+        <v>487.20351240360179</v>
       </c>
       <c r="X25">
-        <v>1014.302791261692</v>
+        <v>1014.3027912616921</v>
       </c>
       <c r="Y25">
-        <v>487.2035124036017</v>
+        <v>487.20351240360168</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,13 +2651,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>654.1143554917093</v>
+        <v>654.11435549170926</v>
       </c>
       <c r="H26">
-        <v>24.38298612188556</v>
+        <v>24.382986121885558</v>
       </c>
       <c r="I26">
-        <v>629.7313693698237</v>
+        <v>629.73136936982371</v>
       </c>
       <c r="J26">
         <v>0.1</v>
@@ -2586,43 +2675,43 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>654.1143554917093</v>
+        <v>654.11435549170926</v>
       </c>
       <c r="P26">
-        <v>24.38298612188556</v>
+        <v>24.382986121885558</v>
       </c>
       <c r="Q26">
-        <v>3.289396592670973</v>
+        <v>3.2893965926709732</v>
       </c>
       <c r="R26">
-        <v>549.5260579013498</v>
+        <v>549.52605790134976</v>
       </c>
       <c r="S26">
-        <v>26.82667136100252</v>
+        <v>26.826671361002521</v>
       </c>
       <c r="T26">
-        <v>26.82667136100252</v>
+        <v>26.826671361002521</v>
       </c>
       <c r="U26">
-        <v>3.289396592670973</v>
+        <v>3.2893965926709732</v>
       </c>
       <c r="V26">
-        <v>549.5260579013498</v>
+        <v>549.52605790134976</v>
       </c>
       <c r="W26">
-        <v>478.0925617625186</v>
+        <v>478.09256176251859</v>
       </c>
       <c r="X26">
-        <v>1107.823931132342</v>
+        <v>1107.8239311323421</v>
       </c>
       <c r="Y26">
         <v>478.0925617625187</v>
       </c>
       <c r="Z26">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2731,19 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>688.3324197142417</v>
+        <v>688.33241971424172</v>
       </c>
       <c r="H27">
-        <v>19.33742141962198</v>
+        <v>19.337421419621979</v>
       </c>
       <c r="I27">
-        <v>668.9949982946198</v>
+        <v>668.99499829461979</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>668.9949982946198</v>
+        <v>668.99499829461979</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2666,43 +2755,43 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>688.3324197142417</v>
+        <v>688.33241971424172</v>
       </c>
       <c r="P27">
-        <v>19.33742141962198</v>
+        <v>19.337421419621979</v>
       </c>
       <c r="Q27">
         <v>3.572229737170086</v>
       </c>
       <c r="R27">
-        <v>599.9172864592564</v>
+        <v>599.91728645925639</v>
       </c>
       <c r="S27">
-        <v>35.59587417460842</v>
+        <v>35.595874174608419</v>
       </c>
       <c r="T27">
-        <v>35.59587417460842</v>
+        <v>35.595874174608419</v>
       </c>
       <c r="U27">
         <v>3.572229737170086</v>
       </c>
       <c r="V27">
-        <v>599.9172864592564</v>
+        <v>599.91728645925639</v>
       </c>
       <c r="W27">
-        <v>416.2254289725461</v>
+        <v>416.22542897254613</v>
       </c>
       <c r="X27">
-        <v>1085.220427267166</v>
+        <v>1085.2204272671661</v>
       </c>
       <c r="Y27">
-        <v>416.2254289725461</v>
+        <v>416.22542897254613</v>
       </c>
       <c r="Z27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,19 +2811,19 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>779.9290081588408</v>
+        <v>779.92900815884082</v>
       </c>
       <c r="H28">
-        <v>34.53308565636632</v>
+        <v>34.533085656366318</v>
       </c>
       <c r="I28">
-        <v>745.3959225024745</v>
+        <v>745.39592250247449</v>
       </c>
       <c r="J28">
         <v>0.1</v>
       </c>
       <c r="K28">
-        <v>745.3959225024744</v>
+        <v>745.39592250247438</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -2746,43 +2835,43 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>779.9290081588408</v>
+        <v>779.92900815884082</v>
       </c>
       <c r="P28">
-        <v>34.53308565636632</v>
+        <v>34.533085656366318</v>
       </c>
       <c r="Q28">
-        <v>3.117285031341922</v>
+        <v>3.1172850313419218</v>
       </c>
       <c r="R28">
         <v>637.7464514998353</v>
       </c>
       <c r="S28">
-        <v>22.58497882059542</v>
+        <v>22.584978820595421</v>
       </c>
       <c r="T28">
-        <v>22.58497882059542</v>
+        <v>22.584978820595421</v>
       </c>
       <c r="U28">
-        <v>3.117285031341922</v>
+        <v>3.1172850313419218</v>
       </c>
       <c r="V28">
         <v>637.7464514998353</v>
       </c>
       <c r="W28">
-        <v>455.7284887196498</v>
+        <v>455.72848871964982</v>
       </c>
       <c r="X28">
-        <v>1201.124411222124</v>
+        <v>1201.1244112221241</v>
       </c>
       <c r="Y28">
-        <v>455.7284887196499</v>
+        <v>455.72848871964987</v>
       </c>
       <c r="Z28">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,19 +2891,19 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>524.8087351725844</v>
+        <v>524.80873517258442</v>
       </c>
       <c r="H29">
-        <v>15.30864569924952</v>
+        <v>15.308645699249521</v>
       </c>
       <c r="I29">
-        <v>509.5000894733349</v>
+        <v>509.50008947333492</v>
       </c>
       <c r="J29">
         <v>0.1</v>
       </c>
       <c r="K29">
-        <v>509.5000894733349</v>
+        <v>509.50008947333492</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -2826,43 +2915,43 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>524.8087351725844</v>
+        <v>524.80873517258442</v>
       </c>
       <c r="P29">
-        <v>15.30864569924952</v>
+        <v>15.308645699249521</v>
       </c>
       <c r="Q29">
         <v>3.534616135072147</v>
       </c>
       <c r="R29">
-        <v>455.3899033786647</v>
+        <v>455.38990337866471</v>
       </c>
       <c r="S29">
-        <v>34.28185258728094</v>
+        <v>34.281852587280937</v>
       </c>
       <c r="T29">
-        <v>34.28185258728094</v>
+        <v>34.281852587280937</v>
       </c>
       <c r="U29">
         <v>3.534616135072147</v>
       </c>
       <c r="V29">
-        <v>455.3899033786647</v>
+        <v>455.38990337866471</v>
       </c>
       <c r="W29">
-        <v>412.6436463518413</v>
+        <v>412.64364635184131</v>
       </c>
       <c r="X29">
-        <v>922.1437358251762</v>
+        <v>922.14373582517624</v>
       </c>
       <c r="Y29">
-        <v>412.6436463518414</v>
+        <v>412.64364635184143</v>
       </c>
       <c r="Z29">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,19 +2971,19 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>524.6575727565482</v>
+        <v>524.65757275654823</v>
       </c>
       <c r="H30">
-        <v>41.94637589921254</v>
+        <v>41.946375899212541</v>
       </c>
       <c r="I30">
-        <v>482.7111968573357</v>
+        <v>482.71119685733572</v>
       </c>
       <c r="J30">
         <v>0.1</v>
       </c>
       <c r="K30">
-        <v>482.7111968573355</v>
+        <v>482.71119685733549</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -2906,16 +2995,16 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>524.6575727565481</v>
+        <v>524.65757275654812</v>
       </c>
       <c r="P30">
-        <v>41.94637589921254</v>
+        <v>41.946375899212541</v>
       </c>
       <c r="Q30">
-        <v>2.52635376919962</v>
+        <v>2.5263537691996198</v>
       </c>
       <c r="R30">
-        <v>376.7398120000959</v>
+        <v>376.73981200009592</v>
       </c>
       <c r="S30">
         <v>12.50781650403313</v>
@@ -2924,25 +3013,25 @@
         <v>12.50781650403313</v>
       </c>
       <c r="U30">
-        <v>2.52635376919962</v>
+        <v>2.5263537691996198</v>
       </c>
       <c r="V30">
-        <v>376.739812000096</v>
+        <v>376.73981200009598</v>
       </c>
       <c r="W30">
-        <v>572.1878122041554</v>
+        <v>572.18781220415542</v>
       </c>
       <c r="X30">
-        <v>1054.899009061491</v>
+        <v>1054.8990090614909</v>
       </c>
       <c r="Y30">
-        <v>572.1878122041556</v>
+        <v>572.18781220415565</v>
       </c>
       <c r="Z30">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2962,19 +3051,19 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>724.8431737829848</v>
+        <v>724.84317378298476</v>
       </c>
       <c r="H31">
-        <v>4.531005855662935</v>
+        <v>4.5310058556629347</v>
       </c>
       <c r="I31">
-        <v>720.3121679273219</v>
+        <v>720.31216792732187</v>
       </c>
       <c r="J31">
         <v>0.1</v>
       </c>
       <c r="K31">
-        <v>720.3121679273218</v>
+        <v>720.31216792732175</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -2986,43 +3075,86 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>724.8431737829848</v>
+        <v>724.84317378298476</v>
       </c>
       <c r="P31">
-        <v>4.531005855662935</v>
+        <v>4.5310058556629347</v>
       </c>
       <c r="Q31">
-        <v>5.075011361392683</v>
+        <v>5.0750113613926828</v>
       </c>
       <c r="R31">
-        <v>697.3172617312957</v>
+        <v>697.31726173129573</v>
       </c>
       <c r="S31">
-        <v>159.9740094966027</v>
+        <v>159.97400949660269</v>
       </c>
       <c r="T31">
-        <v>159.9740094966027</v>
+        <v>159.97400949660269</v>
       </c>
       <c r="U31">
-        <v>5.075011361392683</v>
+        <v>5.0750113613926828</v>
       </c>
       <c r="V31">
-        <v>697.3172617312957</v>
+        <v>697.31726173129573</v>
       </c>
       <c r="W31">
-        <v>371.9790619251177</v>
+        <v>371.97906192511772</v>
       </c>
       <c r="X31">
         <v>1092.29122985244</v>
       </c>
       <c r="Y31">
-        <v>371.9790619251178</v>
+        <v>371.97906192511778</v>
       </c>
       <c r="Z31">
-        <v>0.9999999999999997</v>
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.10000000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.99259887228878674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.0073766653949385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.94087697091709266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1.0753296414949109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>